--- a/RelatorioMulta.xlsx
+++ b/RelatorioMulta.xlsx
@@ -15,69 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>Código Reserva</t>
   </si>
   <si>
+    <t>Data de Devolução</t>
+  </si>
+  <si>
+    <t>Data lime de Devolução</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
+    <t>Filme</t>
+  </si>
+  <si>
     <t>Valor Multa</t>
   </si>
   <si>
-    <t>Data de Devolução</t>
-  </si>
-  <si>
-    <t>Data lime de Devolução</t>
+    <t>Valor Locacao</t>
+  </si>
+  <si>
+    <t>2021-10-25T14:25:27-03:00</t>
+  </si>
+  <si>
+    <t>2021-10-22T13:55:00-03:00</t>
+  </si>
+  <si>
+    <t>2021-10-26T16:54:24-03:00</t>
+  </si>
+  <si>
+    <t>2021-10-22T14:31:00-03:00</t>
   </si>
   <si>
     <t>2021-10-29T13:11:13-03:00</t>
   </si>
   <si>
-    <t>2021-10-22T13:55:00-03:00</t>
-  </si>
-  <si>
     <t>2021-10-29T13:11:18-03:00</t>
   </si>
   <si>
     <t>2021-10-22T14:21:00-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-25T14:25:27-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-26T16:54:24-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T14:31:00-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-26T10:45:31-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T08:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T12:02:18-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T12:02:33-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T14:17:36-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-23T14:16:00-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T14:40:58-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-22T16:26:04-03:00</t>
-  </si>
-  <si>
-    <t>2021-10-23T12:00:00-03:00</t>
   </si>
 </sst>
 </file>
@@ -416,7 +395,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +403,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,175 +419,101 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>21.6</v>
+      </c>
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="G3">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
-      <c r="C2">
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
         <v>33.4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G4">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E5">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
+      <c r="F5">
         <v>33.2</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>21.6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
+      <c r="G5">
+        <v>3.6</v>
       </c>
     </row>
   </sheetData>
